--- a/metadata/crop_climate_profiles.xlsx
+++ b/metadata/crop_climate_profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pstewarda/Documents/rprojects/hazards_prototype/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF9721-3FBF-E345-A5CF-AC2871500093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92265BBB-A287-314E-8E49-7E39877BAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="18980" windowHeight="20800" xr2:uid="{976C283D-6124-E242-AEDD-4FDE2F0F9DC2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="702">
   <si>
     <t>crop</t>
   </si>
@@ -1770,13 +1770,388 @@
   </si>
   <si>
     <t>A code that maps to the IFPRI mapspam dataset (e.g., “maiz” for maize, “pmil” for pearl millet).</t>
+  </si>
+  <si>
+    <t>duration_days</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Germination and emergence</t>
+  </si>
+  <si>
+    <t>15–25</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 1)</t>
+  </si>
+  <si>
+    <t>Temperature influences germination rate and seedling vigor.</t>
+  </si>
+  <si>
+    <t>Leaf development, stem elongation</t>
+  </si>
+  <si>
+    <t>25–40</t>
+  </si>
+  <si>
+    <t>Vegetative leaf development moderately sensitive.</t>
+  </si>
+  <si>
+    <t>Tasselling</t>
+  </si>
+  <si>
+    <t>15–20</t>
+  </si>
+  <si>
+    <t>Reproductive stages highly sensitive—heat impairs pollination.</t>
+  </si>
+  <si>
+    <t>Flowering, anthesis</t>
+  </si>
+  <si>
+    <t>35–45</t>
+  </si>
+  <si>
+    <t>Flowering is very sensitive to extreme temperatures.</t>
+  </si>
+  <si>
+    <t>Kernel development</t>
+  </si>
+  <si>
+    <t>Kernel development vulnerable to heat stress.</t>
+  </si>
+  <si>
+    <t>Ripening</t>
+  </si>
+  <si>
+    <t>10–15</t>
+  </si>
+  <si>
+    <t>Ripening is less sensitive but prolonged heat affects maturation.</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 3)</t>
+  </si>
+  <si>
+    <t>Seedling growth</t>
+  </si>
+  <si>
+    <t>Seedling growth affected by thermal stress.</t>
+  </si>
+  <si>
+    <t>Culm elongation, leaf development</t>
+  </si>
+  <si>
+    <t>16–22</t>
+  </si>
+  <si>
+    <t>Panicle initiation and maturation</t>
+  </si>
+  <si>
+    <t>18–45</t>
+  </si>
+  <si>
+    <t>Panicle initiation and heading are reproductive stages.</t>
+  </si>
+  <si>
+    <t>Flowering and seed formation</t>
+  </si>
+  <si>
+    <t>10–18</t>
+  </si>
+  <si>
+    <t>Grain filling and ripening</t>
+  </si>
+  <si>
+    <t>20–55</t>
+  </si>
+  <si>
+    <t>Grain filling sensitive to accelerated heat shortening.</t>
+  </si>
+  <si>
+    <t>7–11</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 27)</t>
+  </si>
+  <si>
+    <t>Vegetative growth</t>
+  </si>
+  <si>
+    <t>30–57</t>
+  </si>
+  <si>
+    <t>Vegetative growth moderately affected by heat.</t>
+  </si>
+  <si>
+    <t>Flowering</t>
+  </si>
+  <si>
+    <t>23–31</t>
+  </si>
+  <si>
+    <t>Pod development</t>
+  </si>
+  <si>
+    <t>40–66</t>
+  </si>
+  <si>
+    <t>Pod set and fill are reproductive and highly sensitive.</t>
+  </si>
+  <si>
+    <t>Stem cuttings</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 29)</t>
+  </si>
+  <si>
+    <t>General vegetative/unclassified stage; moderately sensitive.</t>
+  </si>
+  <si>
+    <t>Root formation</t>
+  </si>
+  <si>
+    <t>Root formation sensitive to suboptimal temps.</t>
+  </si>
+  <si>
+    <t>Shoot emergence</t>
+  </si>
+  <si>
+    <t>Emergence is moderately sensitive to temperature fluctuations.</t>
+  </si>
+  <si>
+    <t>Leaf development</t>
+  </si>
+  <si>
+    <t>Early and late growth</t>
+  </si>
+  <si>
+    <t>Root development</t>
+  </si>
+  <si>
+    <t>Sprout development and emergence</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 32)</t>
+  </si>
+  <si>
+    <t>Early vegetative growth</t>
+  </si>
+  <si>
+    <t>Late vegetative, tuber initiation</t>
+  </si>
+  <si>
+    <t>Tuber bulking</t>
+  </si>
+  <si>
+    <t>30–55</t>
+  </si>
+  <si>
+    <t>Tuber initiation/bulking is highly temperature-dependent.</t>
+  </si>
+  <si>
+    <t>Stem cuttings, seedling development</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 34)</t>
+  </si>
+  <si>
+    <t>Root initiation</t>
+  </si>
+  <si>
+    <t>Shoot growth</t>
+  </si>
+  <si>
+    <t>Shoot emergence moderately sensitive.</t>
+  </si>
+  <si>
+    <t>Vine growth and maturity</t>
+  </si>
+  <si>
+    <t>Vine growth moderately affected by temperature.</t>
+  </si>
+  <si>
+    <t>Late growth and root development</t>
+  </si>
+  <si>
+    <t>Germination</t>
+  </si>
+  <si>
+    <t>20–25</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 36)</t>
+  </si>
+  <si>
+    <t>Seedling establishment</t>
+  </si>
+  <si>
+    <t>30–40</t>
+  </si>
+  <si>
+    <t>Tuber development</t>
+  </si>
+  <si>
+    <t>&gt;35</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 43)</t>
+  </si>
+  <si>
+    <t>Early vegetative</t>
+  </si>
+  <si>
+    <t>Late vegetative</t>
+  </si>
+  <si>
+    <t>First to last anthesis</t>
+  </si>
+  <si>
+    <t>Anthesis is critical—heat causes pollen sterility.</t>
+  </si>
+  <si>
+    <t>Embryo filling</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 9)</t>
+  </si>
+  <si>
+    <t>Tillering</t>
+  </si>
+  <si>
+    <t>Panicle initiation</t>
+  </si>
+  <si>
+    <t>Anthesis</t>
+  </si>
+  <si>
+    <t>Grain filling</t>
+  </si>
+  <si>
+    <t>Seed germination</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 6)</t>
+  </si>
+  <si>
+    <t>Emergence, seedling growth</t>
+  </si>
+  <si>
+    <t>3–5 leaf stages</t>
+  </si>
+  <si>
+    <t>20–30</t>
+  </si>
+  <si>
+    <t>Panicle formation</t>
+  </si>
+  <si>
+    <t>Floral initiation</t>
+  </si>
+  <si>
+    <t>Blooming, soft dough</t>
+  </si>
+  <si>
+    <t>35–40</t>
+  </si>
+  <si>
+    <t>Hard dough, maturity</t>
+  </si>
+  <si>
+    <t>5–10</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 8)</t>
+  </si>
+  <si>
+    <t>15–40</t>
+  </si>
+  <si>
+    <t>25–50</t>
+  </si>
+  <si>
+    <t>15–30</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>5–15</t>
+  </si>
+  <si>
+    <t>Floral initiation, anthesis</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 13)</t>
+  </si>
+  <si>
+    <t>25–30</t>
+  </si>
+  <si>
+    <t>Flowering and pod setting</t>
+  </si>
+  <si>
+    <t>Pod development and bean filling</t>
+  </si>
+  <si>
+    <t>Maturation</t>
+  </si>
+  <si>
+    <t>0–5</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 16)</t>
+  </si>
+  <si>
+    <t>Emergence and establishment</t>
+  </si>
+  <si>
+    <t>Pod formation and maturation</t>
+  </si>
+  <si>
+    <t>≥20</t>
+  </si>
+  <si>
+    <t>10–20</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 19)</t>
+  </si>
+  <si>
+    <t>Stem growth and leaf development</t>
+  </si>
+  <si>
+    <t>25–35</t>
+  </si>
+  <si>
+    <t>Flowering, peg formation</t>
+  </si>
+  <si>
+    <t>40–55</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 22)</t>
+  </si>
+  <si>
+    <t>Emergence and seedling development</t>
+  </si>
+  <si>
+    <t>Concern Worldwide (Figure 24)</t>
+  </si>
+  <si>
+    <t>rice indica</t>
+  </si>
+  <si>
+    <t>pigeon pea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1930,6 +2305,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2273,12 +2654,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2654,14 +3036,4470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB344C30-C69A-4C47-ABF1-98D1EB5BA47E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A2,spam!A:A,0))</f>
+        <v>maiz</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" s="3">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J2" s="3">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A3,spam!A:A,0))</f>
+        <v>maiz</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3" s="3">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J3" s="3">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A4,spam!A:A,0))</f>
+        <v>maiz</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J4" s="3">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3">
+        <v>15</v>
+      </c>
+      <c r="O4" s="3">
+        <v>20</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A5,spam!A:A,0))</f>
+        <v>maiz</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E5" s="3">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J5" s="3">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45</v>
+      </c>
+      <c r="L5" s="3">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A6,spam!A:A,0))</f>
+        <v>maiz</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J6" s="3">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3">
+        <v>35</v>
+      </c>
+      <c r="M6" s="3">
+        <v>45</v>
+      </c>
+      <c r="N6" s="3">
+        <v>35</v>
+      </c>
+      <c r="O6" s="3">
+        <v>45</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A7,spam!A:A,0))</f>
+        <v>maiz</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E7" s="3">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3">
+        <v>15</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A8,spam!A:A,0))</f>
+        <v>pmil</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3">
+        <v>15</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <v>15</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A9,spam!A:A,0))</f>
+        <v>pmil</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3">
+        <v>15</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3">
+        <v>15</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A10,spam!A:A,0))</f>
+        <v>pmil</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E10" s="3">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3">
+        <v>22</v>
+      </c>
+      <c r="L10" s="3">
+        <v>16</v>
+      </c>
+      <c r="M10" s="3">
+        <v>22</v>
+      </c>
+      <c r="N10" s="3">
+        <v>16</v>
+      </c>
+      <c r="O10" s="3">
+        <v>22</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A11,spam!A:A,0))</f>
+        <v>pmil</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E11" s="3">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3">
+        <v>18</v>
+      </c>
+      <c r="M11" s="3">
+        <v>45</v>
+      </c>
+      <c r="N11" s="3">
+        <v>18</v>
+      </c>
+      <c r="O11" s="3">
+        <v>45</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A12,spam!A:A,0))</f>
+        <v>pmil</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>18</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3">
+        <v>18</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A13,spam!A:A,0))</f>
+        <v>pmil</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="3">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J13" s="3">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3">
+        <v>55</v>
+      </c>
+      <c r="L13" s="3">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3">
+        <v>55</v>
+      </c>
+      <c r="N13" s="3">
+        <v>20</v>
+      </c>
+      <c r="O13" s="3">
+        <v>55</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A14,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E14" s="3">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3">
+        <v>7</v>
+      </c>
+      <c r="O14" s="3">
+        <v>11</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A15,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J15" s="3">
+        <v>30</v>
+      </c>
+      <c r="K15" s="3">
+        <v>57</v>
+      </c>
+      <c r="L15" s="3">
+        <v>30</v>
+      </c>
+      <c r="M15" s="3">
+        <v>57</v>
+      </c>
+      <c r="N15" s="3">
+        <v>30</v>
+      </c>
+      <c r="O15" s="3">
+        <v>57</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A16,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="3">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J16" s="3">
+        <v>23</v>
+      </c>
+      <c r="K16" s="3">
+        <v>31</v>
+      </c>
+      <c r="L16" s="3">
+        <v>23</v>
+      </c>
+      <c r="M16" s="3">
+        <v>31</v>
+      </c>
+      <c r="N16" s="3">
+        <v>23</v>
+      </c>
+      <c r="O16" s="3">
+        <v>31</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A17,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>32</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J17" s="3">
+        <v>40</v>
+      </c>
+      <c r="K17" s="3">
+        <v>66</v>
+      </c>
+      <c r="L17" s="3">
+        <v>40</v>
+      </c>
+      <c r="M17" s="3">
+        <v>66</v>
+      </c>
+      <c r="N17" s="3">
+        <v>40</v>
+      </c>
+      <c r="O17" s="3">
+        <v>66</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A18,spam!A:A,0))</f>
+        <v>cass</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A19,spam!A:A,0))</f>
+        <v>cass</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A20,spam!A:A,0))</f>
+        <v>cass</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A21,spam!A:A,0))</f>
+        <v>cass</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A22,spam!A:A,0))</f>
+        <v>cass</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>33</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A23,spam!A:A,0))</f>
+        <v>cass</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A24,spam!A:A,0))</f>
+        <v>pota</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6</v>
+      </c>
+      <c r="H24" s="3">
+        <v>36</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3">
+        <v>15</v>
+      </c>
+      <c r="M24" s="3">
+        <v>20</v>
+      </c>
+      <c r="N24" s="3">
+        <v>15</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A25,spam!A:A,0))</f>
+        <v>pota</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E25" s="3">
+        <v>21</v>
+      </c>
+      <c r="F25" s="3">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>37</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J25" s="3">
+        <v>15</v>
+      </c>
+      <c r="K25" s="3">
+        <v>25</v>
+      </c>
+      <c r="L25" s="3">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3">
+        <v>25</v>
+      </c>
+      <c r="N25" s="3">
+        <v>15</v>
+      </c>
+      <c r="O25" s="3">
+        <v>25</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A26,spam!A:A,0))</f>
+        <v>pota</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <v>28</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J26" s="3">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3">
+        <v>15</v>
+      </c>
+      <c r="M26" s="3">
+        <v>20</v>
+      </c>
+      <c r="N26" s="3">
+        <v>15</v>
+      </c>
+      <c r="O26" s="3">
+        <v>20</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A27,spam!A:A,0))</f>
+        <v>pota</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J27" s="3">
+        <v>30</v>
+      </c>
+      <c r="K27" s="3">
+        <v>55</v>
+      </c>
+      <c r="L27" s="3">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3">
+        <v>55</v>
+      </c>
+      <c r="N27" s="3">
+        <v>30</v>
+      </c>
+      <c r="O27" s="3">
+        <v>55</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A28,spam!A:A,0))</f>
+        <v>swpo</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3">
+        <v>24</v>
+      </c>
+      <c r="F28" s="3">
+        <v>28</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A29,spam!A:A,0))</f>
+        <v>swpo</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>28</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A30,spam!A:A,0))</f>
+        <v>swpo</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3">
+        <v>30</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A31,spam!A:A,0))</f>
+        <v>swpo</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3">
+        <v>21</v>
+      </c>
+      <c r="F31" s="3">
+        <v>28</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A32,spam!A:A,0))</f>
+        <v>swpo</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3">
+        <v>24</v>
+      </c>
+      <c r="F32" s="3">
+        <v>28</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A33,spam!A:A,0))</f>
+        <v>swpo</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3">
+        <v>30</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A34,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E34" s="3">
+        <v>23</v>
+      </c>
+      <c r="F34" s="3">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="H34" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J34" s="3">
+        <v>20</v>
+      </c>
+      <c r="K34" s="3">
+        <v>25</v>
+      </c>
+      <c r="L34" s="3">
+        <v>20</v>
+      </c>
+      <c r="M34" s="3">
+        <v>25</v>
+      </c>
+      <c r="N34" s="3">
+        <v>20</v>
+      </c>
+      <c r="O34" s="3">
+        <v>25</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A35,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3">
+        <v>32</v>
+      </c>
+      <c r="G35" s="3">
+        <v>11</v>
+      </c>
+      <c r="H35" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A36,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="3">
+        <v>23</v>
+      </c>
+      <c r="F36" s="3">
+        <v>28</v>
+      </c>
+      <c r="G36" s="3">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J36" s="3">
+        <v>30</v>
+      </c>
+      <c r="K36" s="3">
+        <v>40</v>
+      </c>
+      <c r="L36" s="3">
+        <v>30</v>
+      </c>
+      <c r="M36" s="3">
+        <v>40</v>
+      </c>
+      <c r="N36" s="3">
+        <v>30</v>
+      </c>
+      <c r="O36" s="3">
+        <v>40</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A37,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E37" s="3">
+        <v>24</v>
+      </c>
+      <c r="F37" s="3">
+        <v>33</v>
+      </c>
+      <c r="G37" s="3">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3">
+        <v>37</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J37" s="3">
+        <v>35</v>
+      </c>
+      <c r="K37" s="3">
+        <v>35</v>
+      </c>
+      <c r="L37" s="3">
+        <v>35</v>
+      </c>
+      <c r="M37" s="3">
+        <v>35</v>
+      </c>
+      <c r="N37" s="3">
+        <v>35</v>
+      </c>
+      <c r="O37" s="3">
+        <v>35</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A38,spam!A:A,0))</f>
+        <v>sunf</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D38" s="3">
+        <v>20</v>
+      </c>
+      <c r="E38" s="3">
+        <v>23</v>
+      </c>
+      <c r="F38" s="3">
+        <v>30</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J38" s="3">
+        <v>20</v>
+      </c>
+      <c r="K38" s="3">
+        <v>20</v>
+      </c>
+      <c r="L38" s="3">
+        <v>20</v>
+      </c>
+      <c r="M38" s="3">
+        <v>20</v>
+      </c>
+      <c r="N38" s="3">
+        <v>20</v>
+      </c>
+      <c r="O38" s="3">
+        <v>20</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A39,spam!A:A,0))</f>
+        <v>sunf</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D39" s="3">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3">
+        <v>21</v>
+      </c>
+      <c r="F39" s="3">
+        <v>28</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J39" s="3">
+        <v>30</v>
+      </c>
+      <c r="K39" s="3">
+        <v>30</v>
+      </c>
+      <c r="L39" s="3">
+        <v>30</v>
+      </c>
+      <c r="M39" s="3">
+        <v>30</v>
+      </c>
+      <c r="N39" s="3">
+        <v>30</v>
+      </c>
+      <c r="O39" s="3">
+        <v>30</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A40,spam!A:A,0))</f>
+        <v>sunf</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D40" s="3">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3">
+        <v>29</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3">
+        <v>40</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J40" s="3">
+        <v>25</v>
+      </c>
+      <c r="K40" s="3">
+        <v>25</v>
+      </c>
+      <c r="L40" s="3">
+        <v>25</v>
+      </c>
+      <c r="M40" s="3">
+        <v>25</v>
+      </c>
+      <c r="N40" s="3">
+        <v>25</v>
+      </c>
+      <c r="O40" s="3">
+        <v>25</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A41,spam!A:A,0))</f>
+        <v>sunf</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D41" s="3">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21</v>
+      </c>
+      <c r="F41" s="3">
+        <v>26</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3">
+        <v>40</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30</v>
+      </c>
+      <c r="K41" s="3">
+        <v>30</v>
+      </c>
+      <c r="L41" s="3">
+        <v>30</v>
+      </c>
+      <c r="M41" s="3">
+        <v>30</v>
+      </c>
+      <c r="N41" s="3">
+        <v>30</v>
+      </c>
+      <c r="O41" s="3">
+        <v>30</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A42,spam!A:A,0))</f>
+        <v>sunf</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3">
+        <v>25</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="3">
+        <v>40</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J42" s="3">
+        <v>25</v>
+      </c>
+      <c r="K42" s="3">
+        <v>25</v>
+      </c>
+      <c r="L42" s="3">
+        <v>25</v>
+      </c>
+      <c r="M42" s="3">
+        <v>25</v>
+      </c>
+      <c r="N42" s="3">
+        <v>25</v>
+      </c>
+      <c r="O42" s="3">
+        <v>25</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A43,spam!A:A,0))</f>
+        <v>sunf</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D43" s="3">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="3">
+        <v>40</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J43" s="3">
+        <v>15</v>
+      </c>
+      <c r="K43" s="3">
+        <v>15</v>
+      </c>
+      <c r="L43" s="3">
+        <v>15</v>
+      </c>
+      <c r="M43" s="3">
+        <v>15</v>
+      </c>
+      <c r="N43" s="3">
+        <v>15</v>
+      </c>
+      <c r="O43" s="3">
+        <v>15</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B44" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A44,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="3">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3">
+        <v>31</v>
+      </c>
+      <c r="G44" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="H44" s="3">
+        <v>40.1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B45" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A45,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="3">
+        <v>27</v>
+      </c>
+      <c r="F45" s="3">
+        <v>30</v>
+      </c>
+      <c r="G45" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H45" s="3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B46" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A46,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3">
+        <v>22</v>
+      </c>
+      <c r="F46" s="3">
+        <v>31</v>
+      </c>
+      <c r="G46" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="H46" s="3">
+        <v>33.1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B47" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A47,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="3">
+        <v>25</v>
+      </c>
+      <c r="F47" s="3">
+        <v>28</v>
+      </c>
+      <c r="G47" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="H47" s="3">
+        <v>37</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B48" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A48,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="3">
+        <v>22</v>
+      </c>
+      <c r="F48" s="3">
+        <v>26</v>
+      </c>
+      <c r="G48" s="3">
+        <v>20.7</v>
+      </c>
+      <c r="H48" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A49,spam!A:A,0))</f>
+        <v>sorg</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="3">
+        <v>26</v>
+      </c>
+      <c r="F49" s="3">
+        <v>37</v>
+      </c>
+      <c r="G49" s="3">
+        <v>9</v>
+      </c>
+      <c r="H49" s="3">
+        <v>46</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A50,spam!A:A,0))</f>
+        <v>sorg</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E50" s="3">
+        <v>21</v>
+      </c>
+      <c r="F50" s="3">
+        <v>33</v>
+      </c>
+      <c r="G50" s="3">
+        <v>9</v>
+      </c>
+      <c r="H50" s="3">
+        <v>46</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="J50" s="3">
+        <v>15</v>
+      </c>
+      <c r="K50" s="3">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3">
+        <v>15</v>
+      </c>
+      <c r="M50" s="3">
+        <v>20</v>
+      </c>
+      <c r="N50" s="3">
+        <v>15</v>
+      </c>
+      <c r="O50" s="3">
+        <v>20</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A51,spam!A:A,0))</f>
+        <v>sorg</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E51" s="3">
+        <v>26</v>
+      </c>
+      <c r="F51" s="3">
+        <v>33</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9</v>
+      </c>
+      <c r="H51" s="3">
+        <v>43</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="J51" s="3">
+        <v>20</v>
+      </c>
+      <c r="K51" s="3">
+        <v>30</v>
+      </c>
+      <c r="L51" s="3">
+        <v>20</v>
+      </c>
+      <c r="M51" s="3">
+        <v>30</v>
+      </c>
+      <c r="N51" s="3">
+        <v>20</v>
+      </c>
+      <c r="O51" s="3">
+        <v>30</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A52,spam!A:A,0))</f>
+        <v>sorg</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="3">
+        <v>27</v>
+      </c>
+      <c r="F52" s="3">
+        <v>30</v>
+      </c>
+      <c r="G52" s="3">
+        <v>12</v>
+      </c>
+      <c r="H52" s="3">
+        <v>42</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A53,spam!A:A,0))</f>
+        <v>sorg</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E53" s="3">
+        <v>23</v>
+      </c>
+      <c r="F53" s="3">
+        <v>28</v>
+      </c>
+      <c r="G53" s="3">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3">
+        <v>37</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="J53" s="3">
+        <v>15</v>
+      </c>
+      <c r="K53" s="3">
+        <v>20</v>
+      </c>
+      <c r="L53" s="3">
+        <v>15</v>
+      </c>
+      <c r="M53" s="3">
+        <v>20</v>
+      </c>
+      <c r="N53" s="3">
+        <v>15</v>
+      </c>
+      <c r="O53" s="3">
+        <v>20</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A54,spam!A:A,0))</f>
+        <v>sorg</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23</v>
+      </c>
+      <c r="F54" s="3">
+        <v>28</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9</v>
+      </c>
+      <c r="H54" s="3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="J54" s="3">
+        <v>35</v>
+      </c>
+      <c r="K54" s="3">
+        <v>40</v>
+      </c>
+      <c r="L54" s="3">
+        <v>35</v>
+      </c>
+      <c r="M54" s="3">
+        <v>40</v>
+      </c>
+      <c r="N54" s="3">
+        <v>35</v>
+      </c>
+      <c r="O54" s="3">
+        <v>40</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A55,spam!A:A,0))</f>
+        <v>sorg</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E55" s="3">
+        <v>25</v>
+      </c>
+      <c r="F55" s="3">
+        <v>31</v>
+      </c>
+      <c r="G55" s="3">
+        <v>9</v>
+      </c>
+      <c r="H55" s="3">
+        <v>40</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="J55" s="3">
+        <v>10</v>
+      </c>
+      <c r="K55" s="3">
+        <v>15</v>
+      </c>
+      <c r="L55" s="3">
+        <v>10</v>
+      </c>
+      <c r="M55" s="3">
+        <v>15</v>
+      </c>
+      <c r="N55" s="3">
+        <v>10</v>
+      </c>
+      <c r="O55" s="3">
+        <v>15</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A56,spam!A:A,0))</f>
+        <v>rice</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E56" s="3">
+        <v>27</v>
+      </c>
+      <c r="F56" s="3">
+        <v>35</v>
+      </c>
+      <c r="G56" s="3">
+        <v>11</v>
+      </c>
+      <c r="H56" s="3">
+        <v>43</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J56" s="3">
+        <v>5</v>
+      </c>
+      <c r="K56" s="3">
+        <v>10</v>
+      </c>
+      <c r="L56" s="3">
+        <v>5</v>
+      </c>
+      <c r="M56" s="3">
+        <v>10</v>
+      </c>
+      <c r="N56" s="3">
+        <v>5</v>
+      </c>
+      <c r="O56" s="3">
+        <v>10</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A57,spam!A:A,0))</f>
+        <v>rice</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23</v>
+      </c>
+      <c r="F57" s="3">
+        <v>31</v>
+      </c>
+      <c r="G57" s="3">
+        <v>12</v>
+      </c>
+      <c r="H57" s="3">
+        <v>40</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15</v>
+      </c>
+      <c r="K57" s="3">
+        <v>40</v>
+      </c>
+      <c r="L57" s="3">
+        <v>15</v>
+      </c>
+      <c r="M57" s="3">
+        <v>40</v>
+      </c>
+      <c r="N57" s="3">
+        <v>15</v>
+      </c>
+      <c r="O57" s="3">
+        <v>40</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A58,spam!A:A,0))</f>
+        <v>rice</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3">
+        <v>31</v>
+      </c>
+      <c r="G58" s="3">
+        <v>12</v>
+      </c>
+      <c r="H58" s="3">
+        <v>37</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J58" s="3">
+        <v>25</v>
+      </c>
+      <c r="K58" s="3">
+        <v>50</v>
+      </c>
+      <c r="L58" s="3">
+        <v>25</v>
+      </c>
+      <c r="M58" s="3">
+        <v>50</v>
+      </c>
+      <c r="N58" s="3">
+        <v>25</v>
+      </c>
+      <c r="O58" s="3">
+        <v>50</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A59,spam!A:A,0))</f>
+        <v>rice</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3">
+        <v>30</v>
+      </c>
+      <c r="G59" s="3">
+        <v>16</v>
+      </c>
+      <c r="H59" s="3">
+        <v>38</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J59" s="3">
+        <v>15</v>
+      </c>
+      <c r="K59" s="3">
+        <v>30</v>
+      </c>
+      <c r="L59" s="3">
+        <v>15</v>
+      </c>
+      <c r="M59" s="3">
+        <v>30</v>
+      </c>
+      <c r="N59" s="3">
+        <v>15</v>
+      </c>
+      <c r="O59" s="3">
+        <v>30</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A60,spam!A:A,0))</f>
+        <v>rice</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E60" s="3">
+        <v>26</v>
+      </c>
+      <c r="F60" s="3">
+        <v>30</v>
+      </c>
+      <c r="G60" s="3">
+        <v>19</v>
+      </c>
+      <c r="H60" s="3">
+        <v>38</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
+        <v>15</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
+        <v>15</v>
+      </c>
+      <c r="N60" s="3">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
+        <v>15</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A61,spam!A:A,0))</f>
+        <v>rice</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E61" s="3">
+        <v>28</v>
+      </c>
+      <c r="F61" s="3">
+        <v>33</v>
+      </c>
+      <c r="G61" s="3">
+        <v>19</v>
+      </c>
+      <c r="H61" s="3">
+        <v>39</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10</v>
+      </c>
+      <c r="K61" s="3">
+        <v>15</v>
+      </c>
+      <c r="L61" s="3">
+        <v>10</v>
+      </c>
+      <c r="M61" s="3">
+        <v>15</v>
+      </c>
+      <c r="N61" s="3">
+        <v>10</v>
+      </c>
+      <c r="O61" s="3">
+        <v>15</v>
+      </c>
+      <c r="P61" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A62,spam!A:A,0))</f>
+        <v>rice</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20</v>
+      </c>
+      <c r="F62" s="3">
+        <v>26</v>
+      </c>
+      <c r="G62" s="3">
+        <v>17</v>
+      </c>
+      <c r="H62" s="3">
+        <v>30</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J62" s="3">
+        <v>25</v>
+      </c>
+      <c r="K62" s="3">
+        <v>40</v>
+      </c>
+      <c r="L62" s="3">
+        <v>25</v>
+      </c>
+      <c r="M62" s="3">
+        <v>40</v>
+      </c>
+      <c r="N62" s="3">
+        <v>25</v>
+      </c>
+      <c r="O62" s="3">
+        <v>40</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A63,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3">
+        <v>20</v>
+      </c>
+      <c r="F63" s="3">
+        <v>28</v>
+      </c>
+      <c r="G63" s="3">
+        <v>12</v>
+      </c>
+      <c r="H63" s="3">
+        <v>28</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J63" s="3">
+        <v>10</v>
+      </c>
+      <c r="K63" s="3">
+        <v>10</v>
+      </c>
+      <c r="L63" s="3">
+        <v>10</v>
+      </c>
+      <c r="M63" s="3">
+        <v>10</v>
+      </c>
+      <c r="N63" s="3">
+        <v>10</v>
+      </c>
+      <c r="O63" s="3">
+        <v>10</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A64,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E64" s="3">
+        <v>16</v>
+      </c>
+      <c r="F64" s="3">
+        <v>24</v>
+      </c>
+      <c r="G64" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="H64" s="3">
+        <v>28</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J64" s="3">
+        <v>25</v>
+      </c>
+      <c r="K64" s="3">
+        <v>30</v>
+      </c>
+      <c r="L64" s="3">
+        <v>25</v>
+      </c>
+      <c r="M64" s="3">
+        <v>30</v>
+      </c>
+      <c r="N64" s="3">
+        <v>25</v>
+      </c>
+      <c r="O64" s="3">
+        <v>30</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A65,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E65" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="F65" s="3">
+        <v>26</v>
+      </c>
+      <c r="G65" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="H65" s="3">
+        <v>33</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J65" s="3">
+        <v>15</v>
+      </c>
+      <c r="K65" s="3">
+        <v>25</v>
+      </c>
+      <c r="L65" s="3">
+        <v>15</v>
+      </c>
+      <c r="M65" s="3">
+        <v>25</v>
+      </c>
+      <c r="N65" s="3">
+        <v>15</v>
+      </c>
+      <c r="O65" s="3">
+        <v>25</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A66,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3">
+        <v>32.6</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J66" s="3">
+        <v>25</v>
+      </c>
+      <c r="K66" s="3">
+        <v>30</v>
+      </c>
+      <c r="L66" s="3">
+        <v>25</v>
+      </c>
+      <c r="M66" s="3">
+        <v>30</v>
+      </c>
+      <c r="N66" s="3">
+        <v>25</v>
+      </c>
+      <c r="O66" s="3">
+        <v>30</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A67,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E67" s="3">
+        <v>18</v>
+      </c>
+      <c r="F67" s="3">
+        <v>27</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>5</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>5</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>5</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A68,spam!A:A,0))</f>
+        <v>cowp</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E68" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="F68" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="G68" s="3">
+        <v>11</v>
+      </c>
+      <c r="H68" s="3">
+        <v>43</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J68" s="3">
+        <v>10</v>
+      </c>
+      <c r="K68" s="3">
+        <v>15</v>
+      </c>
+      <c r="L68" s="3">
+        <v>10</v>
+      </c>
+      <c r="M68" s="3">
+        <v>15</v>
+      </c>
+      <c r="N68" s="3">
+        <v>10</v>
+      </c>
+      <c r="O68" s="3">
+        <v>15</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A69,spam!A:A,0))</f>
+        <v>cowp</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E69" s="3">
+        <v>21</v>
+      </c>
+      <c r="F69" s="3">
+        <v>28</v>
+      </c>
+      <c r="G69" s="3">
+        <v>10</v>
+      </c>
+      <c r="H69" s="3">
+        <v>37</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J69" s="3">
+        <v>25</v>
+      </c>
+      <c r="K69" s="3">
+        <v>30</v>
+      </c>
+      <c r="L69" s="3">
+        <v>25</v>
+      </c>
+      <c r="M69" s="3">
+        <v>30</v>
+      </c>
+      <c r="N69" s="3">
+        <v>25</v>
+      </c>
+      <c r="O69" s="3">
+        <v>30</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A70,spam!A:A,0))</f>
+        <v>cowp</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E70" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="F70" s="3">
+        <v>33</v>
+      </c>
+      <c r="G70" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H70" s="3">
+        <v>38</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J70" s="3">
+        <v>25</v>
+      </c>
+      <c r="K70" s="3">
+        <v>30</v>
+      </c>
+      <c r="L70" s="3">
+        <v>25</v>
+      </c>
+      <c r="M70" s="3">
+        <v>30</v>
+      </c>
+      <c r="N70" s="3">
+        <v>25</v>
+      </c>
+      <c r="O70" s="3">
+        <v>30</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A71,spam!A:A,0))</f>
+        <v>cowp</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E71" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="F71" s="3">
+        <v>28</v>
+      </c>
+      <c r="G71" s="3">
+        <v>9</v>
+      </c>
+      <c r="H71" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J71" s="3">
+        <v>15</v>
+      </c>
+      <c r="K71" s="3">
+        <v>20</v>
+      </c>
+      <c r="L71" s="3">
+        <v>15</v>
+      </c>
+      <c r="M71" s="3">
+        <v>20</v>
+      </c>
+      <c r="N71" s="3">
+        <v>15</v>
+      </c>
+      <c r="O71" s="3">
+        <v>20</v>
+      </c>
+      <c r="P71" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A72,spam!A:A,0))</f>
+        <v>cowp</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E72" s="3">
+        <v>24</v>
+      </c>
+      <c r="F72" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>9</v>
+      </c>
+      <c r="H72" s="3">
+        <v>35</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J72" s="3">
+        <v>20</v>
+      </c>
+      <c r="K72" s="3">
+        <v>20</v>
+      </c>
+      <c r="L72" s="3">
+        <v>20</v>
+      </c>
+      <c r="M72" s="3">
+        <v>20</v>
+      </c>
+      <c r="N72" s="3">
+        <v>20</v>
+      </c>
+      <c r="O72" s="3">
+        <v>20</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A73,spam!A:A,0))</f>
+        <v>grou</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E73" s="3">
+        <v>24</v>
+      </c>
+      <c r="F73" s="3">
+        <v>31</v>
+      </c>
+      <c r="G73" s="3">
+        <v>10</v>
+      </c>
+      <c r="H73" s="3">
+        <v>45</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="J73" s="3">
+        <v>10</v>
+      </c>
+      <c r="K73" s="3">
+        <v>20</v>
+      </c>
+      <c r="L73" s="3">
+        <v>10</v>
+      </c>
+      <c r="M73" s="3">
+        <v>20</v>
+      </c>
+      <c r="N73" s="3">
+        <v>10</v>
+      </c>
+      <c r="O73" s="3">
+        <v>20</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A74,spam!A:A,0))</f>
+        <v>grou</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="F74" s="3">
+        <v>33</v>
+      </c>
+      <c r="G74" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="H74" s="3">
+        <v>45</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A75,spam!A:A,0))</f>
+        <v>grou</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E75" s="3">
+        <v>27</v>
+      </c>
+      <c r="F75" s="3">
+        <v>32</v>
+      </c>
+      <c r="G75" s="3">
+        <v>12</v>
+      </c>
+      <c r="H75" s="3">
+        <v>45</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="J75" s="3">
+        <v>25</v>
+      </c>
+      <c r="K75" s="3">
+        <v>35</v>
+      </c>
+      <c r="L75" s="3">
+        <v>25</v>
+      </c>
+      <c r="M75" s="3">
+        <v>35</v>
+      </c>
+      <c r="N75" s="3">
+        <v>25</v>
+      </c>
+      <c r="O75" s="3">
+        <v>35</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A76,spam!A:A,0))</f>
+        <v>grou</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26</v>
+      </c>
+      <c r="F76" s="3">
+        <v>31</v>
+      </c>
+      <c r="G76" s="3">
+        <v>12</v>
+      </c>
+      <c r="H76" s="3">
+        <v>43</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="J76" s="3">
+        <v>30</v>
+      </c>
+      <c r="K76" s="3">
+        <v>40</v>
+      </c>
+      <c r="L76" s="3">
+        <v>30</v>
+      </c>
+      <c r="M76" s="3">
+        <v>40</v>
+      </c>
+      <c r="N76" s="3">
+        <v>30</v>
+      </c>
+      <c r="O76" s="3">
+        <v>40</v>
+      </c>
+      <c r="P76" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A77,spam!A:A,0))</f>
+        <v>grou</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E77" s="3">
+        <v>24</v>
+      </c>
+      <c r="F77" s="3">
+        <v>30</v>
+      </c>
+      <c r="G77" s="3">
+        <v>10</v>
+      </c>
+      <c r="H77" s="3">
+        <v>43</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="J77" s="3">
+        <v>40</v>
+      </c>
+      <c r="K77" s="3">
+        <v>55</v>
+      </c>
+      <c r="L77" s="3">
+        <v>40</v>
+      </c>
+      <c r="M77" s="3">
+        <v>55</v>
+      </c>
+      <c r="N77" s="3">
+        <v>40</v>
+      </c>
+      <c r="O77" s="3">
+        <v>55</v>
+      </c>
+      <c r="P77" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B78" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A78,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="3">
+        <v>22</v>
+      </c>
+      <c r="F78" s="3">
+        <v>36</v>
+      </c>
+      <c r="G78" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H78" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B79" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A79,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="3">
+        <v>29</v>
+      </c>
+      <c r="F79" s="3">
+        <v>36</v>
+      </c>
+      <c r="G79" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="H79" s="3">
+        <v>45</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B80" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A80,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="3">
+        <v>21</v>
+      </c>
+      <c r="F80" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="G80" s="3">
+        <v>11</v>
+      </c>
+      <c r="H80" s="3">
+        <v>40</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B81" s="2" t="e">
+        <f>INDEX(spam!B:B,MATCH(A81,spam!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="3">
+        <v>22</v>
+      </c>
+      <c r="F81" s="3">
+        <v>26</v>
+      </c>
+      <c r="G81" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="H81" s="3">
+        <v>40</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A82,spam!A:A,0))</f>
+        <v>soyb</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D82" s="3">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="F82" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="G82" s="3">
+        <v>6</v>
+      </c>
+      <c r="H82" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="J82" s="3">
+        <v>10</v>
+      </c>
+      <c r="K82" s="3">
+        <v>10</v>
+      </c>
+      <c r="L82" s="3">
+        <v>10</v>
+      </c>
+      <c r="M82" s="3">
+        <v>10</v>
+      </c>
+      <c r="N82" s="3">
+        <v>10</v>
+      </c>
+      <c r="O82" s="3">
+        <v>10</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A83,spam!A:A,0))</f>
+        <v>soyb</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22</v>
+      </c>
+      <c r="F83" s="3">
+        <v>29</v>
+      </c>
+      <c r="G83" s="3">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3">
+        <v>40</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="J83" s="3">
+        <v>30</v>
+      </c>
+      <c r="K83" s="3">
+        <v>40</v>
+      </c>
+      <c r="L83" s="3">
+        <v>30</v>
+      </c>
+      <c r="M83" s="3">
+        <v>40</v>
+      </c>
+      <c r="N83" s="3">
+        <v>30</v>
+      </c>
+      <c r="O83" s="3">
+        <v>40</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A84,spam!A:A,0))</f>
+        <v>soyb</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E84" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F84" s="3">
+        <v>29</v>
+      </c>
+      <c r="G84" s="3">
+        <v>13</v>
+      </c>
+      <c r="H84" s="3">
+        <v>40</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="J84" s="3">
+        <v>25</v>
+      </c>
+      <c r="K84" s="3">
+        <v>35</v>
+      </c>
+      <c r="L84" s="3">
+        <v>25</v>
+      </c>
+      <c r="M84" s="3">
+        <v>35</v>
+      </c>
+      <c r="N84" s="3">
+        <v>25</v>
+      </c>
+      <c r="O84" s="3">
+        <v>35</v>
+      </c>
+      <c r="P84" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A85,spam!A:A,0))</f>
+        <v>soyb</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E85" s="3">
+        <v>19</v>
+      </c>
+      <c r="F85" s="3">
+        <v>28</v>
+      </c>
+      <c r="G85" s="3">
+        <v>13</v>
+      </c>
+      <c r="H85" s="3">
+        <v>40</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="J85" s="3">
+        <v>40</v>
+      </c>
+      <c r="K85" s="3">
+        <v>55</v>
+      </c>
+      <c r="L85" s="3">
+        <v>40</v>
+      </c>
+      <c r="M85" s="3">
+        <v>55</v>
+      </c>
+      <c r="N85" s="3">
+        <v>40</v>
+      </c>
+      <c r="O85" s="3">
+        <v>55</v>
+      </c>
+      <c r="P85" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2671,7 +7509,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2730,9 +7568,9 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A2,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B2" t="str">
+        <f>INDEX(spam!B:B,MATCH(A2,spam!A:A,0))</f>
+        <v>maiz</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2781,9 +7619,9 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A3,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B3" t="str">
+        <f>INDEX(spam!B:B,MATCH(A3,spam!A:A,0))</f>
+        <v>maiz</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2832,9 +7670,9 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A4,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B4" t="str">
+        <f>INDEX(spam!B:B,MATCH(A4,spam!A:A,0))</f>
+        <v>maiz</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2883,9 +7721,9 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A5,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B5" t="str">
+        <f>INDEX(spam!B:B,MATCH(A5,spam!A:A,0))</f>
+        <v>maiz</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -2934,9 +7772,9 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A6,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B6" t="str">
+        <f>INDEX(spam!B:B,MATCH(A6,spam!A:A,0))</f>
+        <v>maiz</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2985,9 +7823,9 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A7,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B7" t="str">
+        <f>INDEX(spam!B:B,MATCH(A7,spam!A:A,0))</f>
+        <v>pmil</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3036,9 +7874,9 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A8,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B8" t="str">
+        <f>INDEX(spam!B:B,MATCH(A8,spam!A:A,0))</f>
+        <v>pmil</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -3087,9 +7925,9 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A9,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B9" t="str">
+        <f>INDEX(spam!B:B,MATCH(A9,spam!A:A,0))</f>
+        <v>pmil</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -3138,9 +7976,9 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A10,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B10" t="str">
+        <f>INDEX(spam!B:B,MATCH(A10,spam!A:A,0))</f>
+        <v>pmil</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -3189,9 +8027,9 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A11,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B11" t="str">
+        <f>INDEX(spam!B:B,MATCH(A11,spam!A:A,0))</f>
+        <v>sorg</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -3240,9 +8078,9 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A12,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B12" t="str">
+        <f>INDEX(spam!B:B,MATCH(A12,spam!A:A,0))</f>
+        <v>sorg</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -3291,9 +8129,9 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A13,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B13" t="str">
+        <f>INDEX(spam!B:B,MATCH(A13,spam!A:A,0))</f>
+        <v>sorg</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -3342,9 +8180,9 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A14,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B14" t="str">
+        <f>INDEX(spam!B:B,MATCH(A14,spam!A:A,0))</f>
+        <v>sorg</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -3393,9 +8231,9 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A15,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B15" t="str">
+        <f>INDEX(spam!B:B,MATCH(A15,spam!A:A,0))</f>
+        <v>rice</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -3444,9 +8282,9 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A16,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B16" t="str">
+        <f>INDEX(spam!B:B,MATCH(A16,spam!A:A,0))</f>
+        <v>rice</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -3495,9 +8333,9 @@
       <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A17,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B17" t="str">
+        <f>INDEX(spam!B:B,MATCH(A17,spam!A:A,0))</f>
+        <v>rice</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -3546,9 +8384,9 @@
       <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A18,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B18" t="str">
+        <f>INDEX(spam!B:B,MATCH(A18,spam!A:A,0))</f>
+        <v>rice</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -3597,9 +8435,9 @@
       <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A19,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B19" t="str">
+        <f>INDEX(spam!B:B,MATCH(A19,spam!A:A,0))</f>
+        <v>rice</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -3649,7 +8487,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A20,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A20,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
@@ -3700,7 +8538,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A21,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A21,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C21" t="s">
@@ -3751,7 +8589,7 @@
         <v>85</v>
       </c>
       <c r="B22" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A22,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A22,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C22" t="s">
@@ -3802,7 +8640,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A23,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A23,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C23" t="s">
@@ -3853,7 +8691,7 @@
         <v>85</v>
       </c>
       <c r="B24" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A24,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A24,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C24" t="s">
@@ -3904,7 +8742,7 @@
         <v>101</v>
       </c>
       <c r="B25" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A25,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A25,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C25" t="s">
@@ -3955,7 +8793,7 @@
         <v>101</v>
       </c>
       <c r="B26" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A26,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A26,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C26" t="s">
@@ -4006,7 +8844,7 @@
         <v>101</v>
       </c>
       <c r="B27" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A27,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A27,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C27" t="s">
@@ -4057,7 +8895,7 @@
         <v>101</v>
       </c>
       <c r="B28" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A28,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A28,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C28" t="s">
@@ -4108,7 +8946,7 @@
         <v>101</v>
       </c>
       <c r="B29" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A29,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A29,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C29" t="s">
@@ -4158,9 +8996,9 @@
       <c r="A30" t="s">
         <v>120</v>
       </c>
-      <c r="B30" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A30,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B30" t="str">
+        <f>INDEX(spam!B:B,MATCH(A30,spam!A:A,0))</f>
+        <v>cowp</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -4209,9 +9047,9 @@
       <c r="A31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A31,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B31" t="str">
+        <f>INDEX(spam!B:B,MATCH(A31,spam!A:A,0))</f>
+        <v>cowp</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -4260,9 +9098,9 @@
       <c r="A32" t="s">
         <v>120</v>
       </c>
-      <c r="B32" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A32,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B32" t="str">
+        <f>INDEX(spam!B:B,MATCH(A32,spam!A:A,0))</f>
+        <v>cowp</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -4311,9 +9149,9 @@
       <c r="A33" t="s">
         <v>120</v>
       </c>
-      <c r="B33" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A33,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B33" t="str">
+        <f>INDEX(spam!B:B,MATCH(A33,spam!A:A,0))</f>
+        <v>cowp</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -4362,9 +9200,9 @@
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A34,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B34" t="str">
+        <f>INDEX(spam!B:B,MATCH(A34,spam!A:A,0))</f>
+        <v>cowp</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
@@ -4413,9 +9251,9 @@
       <c r="A35" t="s">
         <v>146</v>
       </c>
-      <c r="B35" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A35,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B35" t="str">
+        <f>INDEX(spam!B:B,MATCH(A35,spam!A:A,0))</f>
+        <v>grou</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
@@ -4464,9 +9302,9 @@
       <c r="A36" t="s">
         <v>146</v>
       </c>
-      <c r="B36" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A36,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B36" t="str">
+        <f>INDEX(spam!B:B,MATCH(A36,spam!A:A,0))</f>
+        <v>grou</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -4515,9 +9353,9 @@
       <c r="A37" t="s">
         <v>146</v>
       </c>
-      <c r="B37" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A37,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B37" t="str">
+        <f>INDEX(spam!B:B,MATCH(A37,spam!A:A,0))</f>
+        <v>grou</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -4566,9 +9404,9 @@
       <c r="A38" t="s">
         <v>146</v>
       </c>
-      <c r="B38" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A38,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B38" t="str">
+        <f>INDEX(spam!B:B,MATCH(A38,spam!A:A,0))</f>
+        <v>grou</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -4617,9 +9455,9 @@
       <c r="A39" t="s">
         <v>146</v>
       </c>
-      <c r="B39" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A39,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B39" t="str">
+        <f>INDEX(spam!B:B,MATCH(A39,spam!A:A,0))</f>
+        <v>grou</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -4668,9 +9506,9 @@
       <c r="A40" t="s">
         <v>196</v>
       </c>
-      <c r="B40" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A40,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B40" t="str">
+        <f>INDEX(spam!B:B,MATCH(A40,spam!A:A,0))</f>
+        <v>soyb</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -4719,9 +9557,9 @@
       <c r="A41" t="s">
         <v>196</v>
       </c>
-      <c r="B41" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A41,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B41" t="str">
+        <f>INDEX(spam!B:B,MATCH(A41,spam!A:A,0))</f>
+        <v>soyb</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -4770,9 +9608,9 @@
       <c r="A42" t="s">
         <v>196</v>
       </c>
-      <c r="B42" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A42,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B42" t="str">
+        <f>INDEX(spam!B:B,MATCH(A42,spam!A:A,0))</f>
+        <v>soyb</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -4821,9 +9659,9 @@
       <c r="A43" t="s">
         <v>196</v>
       </c>
-      <c r="B43" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A43,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B43" t="str">
+        <f>INDEX(spam!B:B,MATCH(A43,spam!A:A,0))</f>
+        <v>soyb</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -4873,7 +9711,7 @@
         <v>174</v>
       </c>
       <c r="B44" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A44,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A44,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C44" t="s">
@@ -4924,7 +9762,7 @@
         <v>174</v>
       </c>
       <c r="B45" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A45,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A45,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C45" t="s">
@@ -4975,7 +9813,7 @@
         <v>174</v>
       </c>
       <c r="B46" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A46,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A46,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C46" t="s">
@@ -5026,7 +9864,7 @@
         <v>174</v>
       </c>
       <c r="B47" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A47,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A47,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C47" t="s">
@@ -5076,9 +9914,9 @@
       <c r="A48" t="s">
         <v>200</v>
       </c>
-      <c r="B48" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A48,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B48" t="str">
+        <f>INDEX(spam!B:B,MATCH(A48,spam!A:A,0))</f>
+        <v>cass</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -5127,9 +9965,9 @@
       <c r="A49" t="s">
         <v>200</v>
       </c>
-      <c r="B49" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A49,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B49" t="str">
+        <f>INDEX(spam!B:B,MATCH(A49,spam!A:A,0))</f>
+        <v>cass</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -5178,9 +10016,9 @@
       <c r="A50" t="s">
         <v>200</v>
       </c>
-      <c r="B50" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A50,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B50" t="str">
+        <f>INDEX(spam!B:B,MATCH(A50,spam!A:A,0))</f>
+        <v>cass</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
@@ -5229,9 +10067,9 @@
       <c r="A51" t="s">
         <v>200</v>
       </c>
-      <c r="B51" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A51,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B51" t="str">
+        <f>INDEX(spam!B:B,MATCH(A51,spam!A:A,0))</f>
+        <v>cass</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
@@ -5280,9 +10118,9 @@
       <c r="A52" t="s">
         <v>222</v>
       </c>
-      <c r="B52" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A52,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B52" t="str">
+        <f>INDEX(spam!B:B,MATCH(A52,spam!A:A,0))</f>
+        <v>pota</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -5331,9 +10169,9 @@
       <c r="A53" t="s">
         <v>222</v>
       </c>
-      <c r="B53" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A53,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B53" t="str">
+        <f>INDEX(spam!B:B,MATCH(A53,spam!A:A,0))</f>
+        <v>pota</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -5382,9 +10220,9 @@
       <c r="A54" t="s">
         <v>222</v>
       </c>
-      <c r="B54" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A54,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B54" t="str">
+        <f>INDEX(spam!B:B,MATCH(A54,spam!A:A,0))</f>
+        <v>pota</v>
       </c>
       <c r="C54" t="s">
         <v>21</v>
@@ -5433,9 +10271,9 @@
       <c r="A55" t="s">
         <v>222</v>
       </c>
-      <c r="B55" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A55,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B55" t="str">
+        <f>INDEX(spam!B:B,MATCH(A55,spam!A:A,0))</f>
+        <v>pota</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
@@ -5484,9 +10322,9 @@
       <c r="A56" t="s">
         <v>222</v>
       </c>
-      <c r="B56" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A56,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B56" t="str">
+        <f>INDEX(spam!B:B,MATCH(A56,spam!A:A,0))</f>
+        <v>pota</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
@@ -5535,9 +10373,9 @@
       <c r="A57" t="s">
         <v>239</v>
       </c>
-      <c r="B57" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A57,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B57" t="str">
+        <f>INDEX(spam!B:B,MATCH(A57,spam!A:A,0))</f>
+        <v>swpo</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -5586,9 +10424,9 @@
       <c r="A58" t="s">
         <v>239</v>
       </c>
-      <c r="B58" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A58,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B58" t="str">
+        <f>INDEX(spam!B:B,MATCH(A58,spam!A:A,0))</f>
+        <v>swpo</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -5637,9 +10475,9 @@
       <c r="A59" t="s">
         <v>239</v>
       </c>
-      <c r="B59" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A59,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B59" t="str">
+        <f>INDEX(spam!B:B,MATCH(A59,spam!A:A,0))</f>
+        <v>swpo</v>
       </c>
       <c r="C59" t="s">
         <v>21</v>
@@ -5688,9 +10526,9 @@
       <c r="A60" t="s">
         <v>239</v>
       </c>
-      <c r="B60" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A60,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B60" t="str">
+        <f>INDEX(spam!B:B,MATCH(A60,spam!A:A,0))</f>
+        <v>swpo</v>
       </c>
       <c r="C60" t="s">
         <v>22</v>
@@ -5739,9 +10577,9 @@
       <c r="A61" t="s">
         <v>239</v>
       </c>
-      <c r="B61" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A61,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B61" t="str">
+        <f>INDEX(spam!B:B,MATCH(A61,spam!A:A,0))</f>
+        <v>swpo</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
@@ -5791,7 +10629,7 @@
         <v>265</v>
       </c>
       <c r="B62" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A62,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A62,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C62" t="s">
@@ -5842,7 +10680,7 @@
         <v>265</v>
       </c>
       <c r="B63" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A63,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A63,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C63" t="s">
@@ -5893,7 +10731,7 @@
         <v>265</v>
       </c>
       <c r="B64" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A64,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A64,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C64" t="s">
@@ -5944,7 +10782,7 @@
         <v>265</v>
       </c>
       <c r="B65" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A65,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A65,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C65" t="s">
@@ -5995,7 +10833,7 @@
         <v>277</v>
       </c>
       <c r="B66" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A66,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A66,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C66" t="s">
@@ -6046,7 +10884,7 @@
         <v>277</v>
       </c>
       <c r="B67" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A67,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A67,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C67" t="s">
@@ -6097,7 +10935,7 @@
         <v>277</v>
       </c>
       <c r="B68" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A68,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A68,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C68" t="s">
@@ -6148,7 +10986,7 @@
         <v>277</v>
       </c>
       <c r="B69" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A69,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A69,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C69" t="s">
@@ -6198,9 +11036,9 @@
       <c r="A70" t="s">
         <v>298</v>
       </c>
-      <c r="B70" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A70,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B70" t="str">
+        <f>INDEX(spam!B:B,MATCH(A70,spam!A:A,0))</f>
+        <v>bana</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
@@ -6249,9 +11087,9 @@
       <c r="A71" t="s">
         <v>298</v>
       </c>
-      <c r="B71" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A71,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B71" t="str">
+        <f>INDEX(spam!B:B,MATCH(A71,spam!A:A,0))</f>
+        <v>bana</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
@@ -6300,9 +11138,9 @@
       <c r="A72" t="s">
         <v>298</v>
       </c>
-      <c r="B72" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A72,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B72" t="str">
+        <f>INDEX(spam!B:B,MATCH(A72,spam!A:A,0))</f>
+        <v>bana</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
@@ -6351,9 +11189,9 @@
       <c r="A73" t="s">
         <v>298</v>
       </c>
-      <c r="B73" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A73,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B73" t="str">
+        <f>INDEX(spam!B:B,MATCH(A73,spam!A:A,0))</f>
+        <v>bana</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -6403,7 +11241,7 @@
         <v>316</v>
       </c>
       <c r="B74" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A74,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A74,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C74" t="s">
@@ -6454,7 +11292,7 @@
         <v>316</v>
       </c>
       <c r="B75" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A75,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A75,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C75" t="s">
@@ -6505,7 +11343,7 @@
         <v>316</v>
       </c>
       <c r="B76" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A76,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A76,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C76" t="s">
@@ -6556,7 +11394,7 @@
         <v>316</v>
       </c>
       <c r="B77" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A77,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A77,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C77" t="s">
@@ -6607,7 +11445,7 @@
         <v>316</v>
       </c>
       <c r="B78" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A78,temperature!A:A,0))</f>
+        <f>INDEX(spam!B:B,MATCH(A78,spam!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C78" t="s">
@@ -6657,9 +11495,9 @@
       <c r="A79" t="s">
         <v>337</v>
       </c>
-      <c r="B79" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A79,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B79" t="str">
+        <f>INDEX(spam!B:B,MATCH(A79,spam!A:A,0))</f>
+        <v>sunf</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -6708,9 +11546,9 @@
       <c r="A80" t="s">
         <v>337</v>
       </c>
-      <c r="B80" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A80,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B80" t="str">
+        <f>INDEX(spam!B:B,MATCH(A80,spam!A:A,0))</f>
+        <v>sunf</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
@@ -6759,9 +11597,9 @@
       <c r="A81" t="s">
         <v>337</v>
       </c>
-      <c r="B81" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A81,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B81" t="str">
+        <f>INDEX(spam!B:B,MATCH(A81,spam!A:A,0))</f>
+        <v>sunf</v>
       </c>
       <c r="C81" t="s">
         <v>21</v>
@@ -6810,9 +11648,9 @@
       <c r="A82" t="s">
         <v>337</v>
       </c>
-      <c r="B82" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A82,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B82" t="str">
+        <f>INDEX(spam!B:B,MATCH(A82,spam!A:A,0))</f>
+        <v>sunf</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -6861,9 +11699,9 @@
       <c r="A83" t="s">
         <v>337</v>
       </c>
-      <c r="B83" t="e">
-        <f>INDEX(temperature!B:B,MATCH(A83,temperature!A:A,0))</f>
-        <v>#N/A</v>
+      <c r="B83" t="str">
+        <f>INDEX(spam!B:B,MATCH(A83,spam!A:A,0))</f>
+        <v>sunf</v>
       </c>
       <c r="C83" t="s">
         <v>74</v>
@@ -7349,7 +12187,7 @@
         <v>529</v>
       </c>
       <c r="E2" t="b">
-        <f>IF(C2="NA","NA",IFERROR(MATCH(spam!C2,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C2="NA","NA",IFERROR(MATCH(spam!C2,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F2" t="b">
@@ -7371,12 +12209,12 @@
         <v>529</v>
       </c>
       <c r="E3" t="b">
-        <f>IF(C3="NA","NA",IFERROR(MATCH(spam!C3,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C3="NA","NA",IFERROR(MATCH(spam!C3,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F3" t="b">
         <f>IF(C3="NA","NA",IFERROR(MATCH(spam!C3,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7393,7 +12231,7 @@
         <v>529</v>
       </c>
       <c r="E4" t="b">
-        <f>IF(C4="NA","NA",IFERROR(MATCH(spam!C4,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C4="NA","NA",IFERROR(MATCH(spam!C4,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F4" t="b">
@@ -7415,7 +12253,7 @@
         <v>529</v>
       </c>
       <c r="E5" t="b">
-        <f>IF(C5="NA","NA",IFERROR(MATCH(spam!C5,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C5="NA","NA",IFERROR(MATCH(spam!C5,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F5" t="b">
@@ -7437,12 +12275,12 @@
         <v>529</v>
       </c>
       <c r="E6" t="b">
-        <f>IF(C6="NA","NA",IFERROR(MATCH(spam!C6,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C6="NA","NA",IFERROR(MATCH(spam!C6,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F6" t="b">
         <f>IF(C6="NA","NA",IFERROR(MATCH(spam!C6,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7459,7 +12297,7 @@
         <v>529</v>
       </c>
       <c r="E7" t="b">
-        <f>IF(C7="NA","NA",IFERROR(MATCH(spam!C7,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C7="NA","NA",IFERROR(MATCH(spam!C7,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F7" t="b">
@@ -7481,7 +12319,7 @@
         <v>529</v>
       </c>
       <c r="E8" t="b">
-        <f>IF(C8="NA","NA",IFERROR(MATCH(spam!C8,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C8="NA","NA",IFERROR(MATCH(spam!C8,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F8" t="b">
@@ -7503,7 +12341,7 @@
         <v>529</v>
       </c>
       <c r="E9" t="b">
-        <f>IF(C9="NA","NA",IFERROR(MATCH(spam!C9,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C9="NA","NA",IFERROR(MATCH(spam!C9,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F9" t="b">
@@ -7525,7 +12363,7 @@
         <v>529</v>
       </c>
       <c r="E10" t="b">
-        <f>IF(C10="NA","NA",IFERROR(MATCH(spam!C10,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C10="NA","NA",IFERROR(MATCH(spam!C10,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F10" t="b">
@@ -7547,12 +12385,12 @@
         <v>529</v>
       </c>
       <c r="E11" t="b">
-        <f>IF(C11="NA","NA",IFERROR(MATCH(spam!C11,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C11="NA","NA",IFERROR(MATCH(spam!C11,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F11" t="b">
         <f>IF(C11="NA","NA",IFERROR(MATCH(spam!C11,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7569,12 +12407,12 @@
         <v>529</v>
       </c>
       <c r="E12" t="b">
-        <f>IF(C12="NA","NA",IFERROR(MATCH(spam!C12,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C12="NA","NA",IFERROR(MATCH(spam!C12,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F12" t="b">
         <f>IF(C12="NA","NA",IFERROR(MATCH(spam!C12,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7591,7 +12429,7 @@
         <v>529</v>
       </c>
       <c r="E13" t="b">
-        <f>IF(C13="NA","NA",IFERROR(MATCH(spam!C13,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C13="NA","NA",IFERROR(MATCH(spam!C13,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F13" t="b">
@@ -7613,12 +12451,12 @@
         <v>529</v>
       </c>
       <c r="E14" t="b">
-        <f>IF(C14="NA","NA",IFERROR(MATCH(spam!C14,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C14="NA","NA",IFERROR(MATCH(spam!C14,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F14" t="b">
         <f>IF(C14="NA","NA",IFERROR(MATCH(spam!C14,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7635,7 +12473,7 @@
         <v>529</v>
       </c>
       <c r="E15" t="b">
-        <f>IF(C15="NA","NA",IFERROR(MATCH(spam!C15,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C15="NA","NA",IFERROR(MATCH(spam!C15,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F15" t="b">
@@ -7657,7 +12495,7 @@
         <v>529</v>
       </c>
       <c r="E16" t="b">
-        <f>IF(C16="NA","NA",IFERROR(MATCH(spam!C16,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C16="NA","NA",IFERROR(MATCH(spam!C16,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F16" t="b">
@@ -7679,7 +12517,7 @@
         <v>529</v>
       </c>
       <c r="E17" t="b">
-        <f>IF(C17="NA","NA",IFERROR(MATCH(spam!C17,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C17="NA","NA",IFERROR(MATCH(spam!C17,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F17" t="b">
@@ -7701,12 +12539,12 @@
         <v>529</v>
       </c>
       <c r="E18" t="b">
-        <f>IF(C18="NA","NA",IFERROR(MATCH(spam!C18,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C18="NA","NA",IFERROR(MATCH(spam!C18,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F18" t="b">
         <f>IF(C18="NA","NA",IFERROR(MATCH(spam!C18,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7723,12 +12561,12 @@
         <v>529</v>
       </c>
       <c r="E19" t="b">
-        <f>IF(C19="NA","NA",IFERROR(MATCH(spam!C19,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C19="NA","NA",IFERROR(MATCH(spam!C19,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F19" t="b">
         <f>IF(C19="NA","NA",IFERROR(MATCH(spam!C19,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7745,7 +12583,7 @@
         <v>529</v>
       </c>
       <c r="E20" t="b">
-        <f>IF(C20="NA","NA",IFERROR(MATCH(spam!C20,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C20="NA","NA",IFERROR(MATCH(spam!C20,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F20" t="b">
@@ -7767,7 +12605,7 @@
         <v>529</v>
       </c>
       <c r="E21" t="b">
-        <f>IF(C21="NA","NA",IFERROR(MATCH(spam!C21,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C21="NA","NA",IFERROR(MATCH(spam!C21,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F21" t="b">
@@ -7789,12 +12627,12 @@
         <v>529</v>
       </c>
       <c r="E22" t="b">
-        <f>IF(C22="NA","NA",IFERROR(MATCH(spam!C22,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C22="NA","NA",IFERROR(MATCH(spam!C22,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F22" t="b">
         <f>IF(C22="NA","NA",IFERROR(MATCH(spam!C22,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -7811,7 +12649,7 @@
         <v>529</v>
       </c>
       <c r="E23" t="b">
-        <f>IF(C23="NA","NA",IFERROR(MATCH(spam!C23,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C23="NA","NA",IFERROR(MATCH(spam!C23,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F23" t="b">
@@ -7833,7 +12671,7 @@
         <v>529</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(C24="NA","NA",IFERROR(MATCH(spam!C24,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C24="NA","NA",IFERROR(MATCH(spam!C24,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>NA</v>
       </c>
       <c r="F24" t="str">
@@ -7855,12 +12693,12 @@
         <v>529</v>
       </c>
       <c r="E25" t="b">
-        <f>IF(C25="NA","NA",IFERROR(MATCH(spam!C25,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C25="NA","NA",IFERROR(MATCH(spam!C25,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F25" t="b">
         <f>IF(C25="NA","NA",IFERROR(MATCH(spam!C25,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -7877,12 +12715,12 @@
         <v>529</v>
       </c>
       <c r="E26" t="b">
-        <f>IF(C26="NA","NA",IFERROR(MATCH(spam!C26,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C26="NA","NA",IFERROR(MATCH(spam!C26,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F26" t="b">
         <f>IF(C26="NA","NA",IFERROR(MATCH(spam!C26,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -7899,7 +12737,7 @@
         <v>529</v>
       </c>
       <c r="E27" t="b">
-        <f>IF(C27="NA","NA",IFERROR(MATCH(spam!C27,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C27="NA","NA",IFERROR(MATCH(spam!C27,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F27" t="b">
@@ -7921,7 +12759,7 @@
         <v>529</v>
       </c>
       <c r="E28" t="b">
-        <f>IF(C28="NA","NA",IFERROR(MATCH(spam!C28,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C28="NA","NA",IFERROR(MATCH(spam!C28,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F28" t="b">
@@ -7943,12 +12781,12 @@
         <v>529</v>
       </c>
       <c r="E29" t="b">
-        <f>IF(C29="NA","NA",IFERROR(MATCH(spam!C29,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C29="NA","NA",IFERROR(MATCH(spam!C29,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F29" t="b">
         <f>IF(C29="NA","NA",IFERROR(MATCH(spam!C29,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -7965,12 +12803,12 @@
         <v>529</v>
       </c>
       <c r="E30" t="b">
-        <f>IF(C30="NA","NA",IFERROR(MATCH(spam!C30,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C30="NA","NA",IFERROR(MATCH(spam!C30,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F30" t="b">
         <f>IF(C30="NA","NA",IFERROR(MATCH(spam!C30,water!B:B,0)&gt;0,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -7987,7 +12825,7 @@
         <v>529</v>
       </c>
       <c r="E31" t="b">
-        <f>IF(C31="NA","NA",IFERROR(MATCH(spam!C31,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C31="NA","NA",IFERROR(MATCH(spam!C31,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F31" t="b">
@@ -8009,7 +12847,7 @@
         <v>529</v>
       </c>
       <c r="E32" t="b">
-        <f>IF(C32="NA","NA",IFERROR(MATCH(spam!C32,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C32="NA","NA",IFERROR(MATCH(spam!C32,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F32" t="b">
@@ -8031,7 +12869,7 @@
         <v>529</v>
       </c>
       <c r="E33" t="b">
-        <f>IF(C33="NA","NA",IFERROR(MATCH(spam!C33,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C33="NA","NA",IFERROR(MATCH(spam!C33,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F33" t="b">
@@ -8053,7 +12891,7 @@
         <v>529</v>
       </c>
       <c r="E34" t="b">
-        <f>IF(C34="NA","NA",IFERROR(MATCH(spam!C34,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C34="NA","NA",IFERROR(MATCH(spam!C34,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F34" t="b">
@@ -8075,7 +12913,7 @@
         <v>529</v>
       </c>
       <c r="E35" t="b">
-        <f>IF(C35="NA","NA",IFERROR(MATCH(spam!C35,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C35="NA","NA",IFERROR(MATCH(spam!C35,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F35" t="b">
@@ -8097,7 +12935,7 @@
         <v>529</v>
       </c>
       <c r="E36" t="b">
-        <f>IF(C36="NA","NA",IFERROR(MATCH(spam!C36,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C36="NA","NA",IFERROR(MATCH(spam!C36,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F36" t="b">
@@ -8119,7 +12957,7 @@
         <v>529</v>
       </c>
       <c r="E37" t="b">
-        <f>IF(C37="NA","NA",IFERROR(MATCH(spam!C37,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C37="NA","NA",IFERROR(MATCH(spam!C37,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F37" t="b">
@@ -8141,7 +12979,7 @@
         <v>539</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(C38="NA","NA",IFERROR(MATCH(spam!C38,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C38="NA","NA",IFERROR(MATCH(spam!C38,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>NA</v>
       </c>
       <c r="F38" t="str">
@@ -8163,7 +13001,7 @@
         <v>539</v>
       </c>
       <c r="E39" t="b">
-        <f>IF(C39="NA","NA",IFERROR(MATCH(spam!C39,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C39="NA","NA",IFERROR(MATCH(spam!C39,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F39" t="b">
@@ -8185,7 +13023,7 @@
         <v>539</v>
       </c>
       <c r="E40" t="b">
-        <f>IF(C40="NA","NA",IFERROR(MATCH(spam!C40,temperature!B:B,0)&gt;0,FALSE))</f>
+        <f>IF(C40="NA","NA",IFERROR(MATCH(spam!C40,temperature!#REF!,0)&gt;0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="F40" t="b">
